--- a/medicine/Psychotrope/Liste_de_marques_de_bières_brassées_en_France/Liste_de_marques_de_bières_brassées_en_France.xlsx
+++ b/medicine/Psychotrope/Liste_de_marques_de_bières_brassées_en_France/Liste_de_marques_de_bières_brassées_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste (non exhaustive) de marques de bière brassées en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Marché de la bière en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, La France est le 1er pays européen en nombre de brasseries avec 2 000 brasseries et plus de 10 000 références de bières différentes[1].
-La France est le 8ème pays producteur de bières en Europe et 70 % des bières consommées en France sont produites en France [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, La France est le 1er pays européen en nombre de brasseries avec 2 000 brasseries et plus de 10 000 références de bières différentes.
+La France est le 8ème pays producteur de bières en Europe et 70 % des bières consommées en France sont produites en France .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Les appellations[réf. nécessaire]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bières fermières sont issues d'un brassage à la ferme par un agriculteur qui trouve là un moyen de valoriser son travail de production d'orge, de houblon, etc. Ces bières sont alors issues d'une structure agricole non-industrialisée et du potentiel agronomique d'un terroir parfaitement identifié. Elles sont commercialisées via les circuits courts et plus particulièrement via la vente directe.
-Les bières artisanales[3] sont issues de l'achat de produits agricoles de provenances géographiques variées, brassés dans une structure modérément ou non industrialisée et disposant de moins de 10 salariés.
+Les bières artisanales sont issues de l'achat de produits agricoles de provenances géographiques variées, brassés dans une structure modérément ou non industrialisée et disposant de moins de 10 salariés.
 Les bières industrielles sont issues de l'achat de produits agricoles de provenances géographiques variées, brassés dans une structure industrialisée à l'effectif salarial non contraint.</t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ain
-Thou, Maison de brasseur, Pont-d'Ain
+          <t>Ain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thou, Maison de brasseur, Pont-d'Ain
 Brasserie La Voie Maltée, Saint-Jean-de-Thurigneux
-Brasserie Artisanale de Grilly, Grilly
-Allier
-Brasserie de la Motte Juillet, à Tréban :
+Brasserie Artisanale de Grilly, Grilly</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allier</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brasserie de la Motte Juillet, à Tréban :
 Bière de La Motte Juillet
 Bock'Age, blonde 5,0 %
 Zéro Trois, blonde 5,5 %
@@ -597,19 +652,87 @@
 Automn'Ale, blonde 6,5 %
 Noël, 5,0 %
 Festiv'Ale, blonde 5,0 %
-Brasserie Blondel, à Montluçon : bière La Lubie
-Ardèche
-Bourganel, à Vals-les-Bains[4]
+Brasserie Blondel, à Montluçon : bière La Lubie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ardèche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bourganel, à Vals-les-Bains
 Ceven'Ale, à Rosières
 Les chopes du Moulin, à Lamastre
 L'Agrivoise, à Saint-Agrève
 La Brasserie La montgolfière, à Annonay
-Graine de Bules, à Davézieux[5]
+Graine de Bules, à Davézieux
 Free Mousse, à Saint Victor
 La Renarde, à Saint-Remèze
-Brasserie des Rieux, à Vogüé[6], [7].
-Drôme
-Brasserie bio du Slalom, à La Chapelle-en-Vercors :
+Brasserie des Rieux, à Vogüé, .</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Drôme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Brasserie bio du Slalom, à La Chapelle-en-Vercors :
 Blonde, 5%
 IPA, 5,4%
 Ambrée, 5,7%
@@ -655,9 +778,43 @@
 Cav'ale (Brasserie Artisanale de Menglon), brassée à Menglon
 Les Trois Becs (Brasserie Artisanale de Gigors et Lozeron), brassée à Gigors et Lozeron
 Les Gens Sérieux (Brasserie de Crest), brassée à Crest
-La Bascule (Brasserie Artisanale de Châtillon-en-Diois), brassée à Châtillon-en-Diois
-Haute-Loire
-Brasserie Volcane à Cohade, bières de haute fermentation brassées dans le respect de la tradition.
+La Bascule (Brasserie Artisanale de Châtillon-en-Diois), brassée à Châtillon-en-Diois</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Haute-Loire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Brasserie Volcane à Cohade, bières de haute fermentation brassées dans le respect de la tradition.
 Volcane blanche
 Volcane blonde
 Volcane ambrée
@@ -681,12 +838,80 @@
 Sang des Muses, Noire
 Hvergelmir, Double IPA
 Brasserie La Strol à Monistrol sur Loire
-Blonde, blanche ou rousse
-Haute-Savoie
-La Cordée brassée à Annecy
-La Blanche, l'Ambrée, la Bière de Garde, la Blonde, la Pils, la Bière de l'Instant de marque Artmalté par la Petite fabrique à Annecy
-Isère
-Une Petite Mousse - La Brasserie, à Comboire
+Blonde, blanche ou rousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Haute-Savoie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Cordée brassée à Annecy
+La Blanche, l'Ambrée, la Bière de Garde, la Blonde, la Pils, la Bière de l'Instant de marque Artmalté par la Petite fabrique à Annecy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Isère</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Une Petite Mousse - La Brasserie, à Comboire
 Une Pour Tous, Tous Pour Elle
 La Déclaration
 James Blonde
@@ -697,7 +922,7 @@
 La PréamBulle Bière Blonde
 La FunamBulle Bière Ambrée
 La NoctamBulle Bière Brune
-Brasserie artisanale du Dauphiné, bière artisanale de Saint-Martin-d'Hères[8].
+Brasserie artisanale du Dauphiné, bière artisanale de Saint-Martin-d'Hères.
 Mandrin aux noix
 Mandrin à la réglisse
 Mandrin au sapin
@@ -751,9 +976,43 @@
 Ambrée
 Brune
 La WouizZ
-Brasserie Artisanale Garrica à Jarrie
-Loire
-La Part des Autres, Machézal/Saint-Etienne.
+Brasserie Artisanale Garrica à Jarrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Part des Autres, Machézal/Saint-Etienne.
 Brasserie du Loire
 Relaxante Blonde
 Apaisante Blanche
@@ -801,12 +1060,80 @@
 Salve Garde (Bière médiévale), 4,8°, ambrée
 Trouille, 6,6°, brune
 La brasserie de la Loire à Saint-Just-Saint-Rambert.
-La brasserie Serge à Saint-Étienne. Brasserie gérée par les étudiants de l'ENISE
-Puy-de-Dôme
-Brasserie Gaïa - Bières du Sancy, à Picherande :
-La Gaïa, bière blanche, blonde, ambrée, brune et Mienguette (à la gentiane).
-Rhône et métropole de Lyon
-Rinck
+La brasserie Serge à Saint-Étienne. Brasserie gérée par les étudiants de l'ENISE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Puy-de-Dôme</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Brasserie Gaïa - Bières du Sancy, à Picherande :
+La Gaïa, bière blanche, blonde, ambrée, brune et Mienguette (à la gentiane).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rhône et métropole de Lyon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Rinck
 La Soyeuse, à Rontalon.
 Brasserie des Gones, à Corbas.
 Mappiness, à Décines-Charpieu.
@@ -839,9 +1166,43 @@
 Cherry Blossom
 3 Gones
 Promenade des Tuileries
-Terre de bières, à Limas[9].
-Savoie
-Brasserie artisanale de Sabaudia (BAS), brassée à Chambéry :
+Terre de bières, à Limas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Savoie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Brasserie artisanale de Sabaudia (BAS), brassée à Chambéry :
 Blonde, 4,8° ;
 Blanche, 5° ;
 Ambrée, 4,5° ;
@@ -882,34 +1243,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Bourgogne-Franche-Comté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Côte-d'Or
-Campus brassicole Brasserie de France[10],[11],[12],[13],[14],[15],[16],[17] à Beaune
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Campus brassicole Brasserie de France à Beaune
 Bières La Beaunoise
 La 21 - Bière labellisée « Savoir-faire 100% Côte-d’Or »
 Bières BUZZ
@@ -932,9 +1298,43 @@
 Bière de Printemps, blonde (5 %)
 La Burgonde "10" (10,3 %)
 IPA (7,5 %)
-Bière de Noël (6,5 %)
-Doubs
-Brasserie Backporte
+Bière de Noël (6,5 %)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Doubs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Brasserie Backporte
 Canon IPA (IPA, 5,5%)
 5 ème Saison (saison, 6,2%)
 Sziget (Hefe Weizen, 6%)
@@ -1001,9 +1401,43 @@
 Bière Blanche
 Bière IPA
 Bière Triple
-Bière de saison : Printemps, Noël, Commune
-Haute-Saône
-Brasserie Ad Libitum, à Étuz :
+Bière de saison : Printemps, Noël, Commune</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Haute-Saône</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Brasserie Ad Libitum, à Étuz :
 My Name Is Blond : Bière blonde houblonnée
 Ref Fever : Bière rousse, Red IPA
 Privés De Dessert : Bière blonde, NEIPA
@@ -1043,9 +1477,43 @@
 La Turlutte - Bière blonde
 La Mélomalt - Bière ambrée
 L'Aïe-Zeimer - Bière brune
-La Seed-Errante - Bière noire
-Jura
-Brasserie artisanale La Montagnette à Arinthod :
+La Seed-Errante - Bière noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Brasserie artisanale La Montagnette à Arinthod :
 Bière Blonde bio
 Bière Ambrée bio
 Bière Blanche bio
@@ -1083,9 +1551,43 @@
 La Bièregelette Blanche - Bière blanche
 La Bièregelette Blonde - Bière blonde
 La Bièregelette De Printemps - Bière blonde
-La Bièregelette De Noël - Bière brune
-Nièvre
-Brasserie Ôlieu à Nevers :
+La Bièregelette De Noël - Bière brune</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nièvre</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Brasserie Ôlieu à Nevers :
 Daisy, blonde, légère et amère ;
 Ishbel, blonde, cuivrée houblonnée ;
 Circé, rousse, aux arômes de sous bois ;
@@ -1121,9 +1623,43 @@
 Blonde
 Ambrée
 Brune
-Stout
-Saône-et-Loire
-Brasserie sans peur à Montceau-les-Mines :
+Stout</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Brasserie sans peur à Montceau-les-Mines :
 La Montcellienne, blonde, 6° ;
 Blonde des bouchures, 6° ;
 La Goupil, rousse, 6° ;
@@ -1139,16 +1675,85 @@
 L'Audacieuse, Flor'Ale, rousse ;
 L'Audacieuse, Jovi'Ale, blonde dorée ;
 L'Audacieuse, Origin'Ale, ambrée ;
-L'Audacieuse, Spéci'Ale, bière de saison.
-Territoire de Belfort
-La Brasserie Franc-comtoise, à Giromagny :
+L'Audacieuse, Spéci'Ale, bière de saison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Territoire de Belfort</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brasserie Franc-comtoise, à Giromagny :
 La Rebelle Blanche ;
 La Rebelle Blonde ;
 La Rebelle Ambrée ;
 La Rebelle Brune.
 Microbrasserie et Compagnie, à Belfort
-Yonne
-Brasserie La Grenouillette à Saint-Privé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yonne</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Brasserie La Grenouillette à Saint-Privé.
 Brasserie Larché à Sens :
 Alésia blanche, bio ;
 Alésia blonde, bio ;
@@ -1178,34 +1783,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Bretagne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Côtes-d'Armor
-Brasserie Kerampont, à Lannion :
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Côtes-d'Armor</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Brasserie Kerampont, à Lannion :
 Gwin Zegal, blanche au seigle, 5%
 Ebrel, ambrée 4 céréales, 5,5%
 Kirio, blonde dorée, 5,2%
@@ -1236,9 +1846,43 @@
 Duc de Carnoët, summer ale 5,0 %
 Brasserie de Launay, à Plémy :
 Oézett Blonde
-Oézett Brune
-Finistère
-La Brasserie du Bout du Monde à Rosnoen :
+Oézett Brune</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Finistère</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>La Brasserie du Bout du Monde à Rosnoen :
 Terenez, Blonde
 Terenez, Blanche
 Terenez, Triple
@@ -1318,9 +1962,43 @@
 Brasserie Ti-Chope, à Plouvien :
 La Blanche Ti-Chope, 5,5 %
 La Blonde Ti-Chope, 5,2 %
-La Brune Ti-Chope, 5,2 %
-Ille-et-Vilaine
-Micro-Brasserie, Pub Bressan, à Vitré :
+La Brune Ti-Chope, 5,2 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ille-et-Vilaine</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Micro-Brasserie, Pub Bressan, à Vitré :
 Potion Ambrée, 5,6 %
 Potion Ambrée aus 3 Epices
 Potion Blanche
@@ -1343,9 +2021,43 @@
 La Bagoul Porter, 5,5 %
 Microbrasserie Bizhhh, à Le Rheu :La bizhhh blonde
 La bizhhh ambrée
-La bizhhh porter
-Morbihan
-Brasserie La Zephyr, à Quiberon :
+La bizhhh porter</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Morbihan</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Brasserie La Zephyr, à Quiberon :
 La Zephyr
 Brasserie de Belle-Île-en-Mer, à Belle-Île-en-Mer :
 La Morgat, Ambrée 5,5 %
@@ -1378,34 +2090,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Centre-Val de Loire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cher
-Brasserie Artisanale La Crécelle, à Bourges
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cher</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Brasserie Artisanale La Crécelle, à Bourges
 La Blonde, blonde aux épices 5,5 %
 La Blanche, blanche aux écorces orange amer 5,0 %
 L'Ambrée, ambrée façon Abbaye 5,5 % fourquet d'argent 2008 St Nicolas de Port
@@ -1421,17 +2138,85 @@
 Blanche
 Noire
 Barrique
-Brasserie Sancerroise, à Sancerre
-Eure-et-Loir
-Microbrasserie de Chandres, à Sours :
+Brasserie Sancerroise, à Sancerre</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Eure-et-Loir</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Microbrasserie de Chandres, à Sours :
 Bière L'Eurélienne blonde
 Bière L'Eurélienne blanche
 Bière L'Eurélienne rousse
 Bière L'Eurélienne triple
 Bière L'Eurélienne India pale ale
-Bière L'Eurélienne cuvée de noël
-Indre
-Ferme du Bail Neuf, à Migny :
+Bière L'Eurélienne cuvée de noël</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Indre</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferme du Bail Neuf, à Migny :
 La Sorcière du Berry, blonde au gratte-cul 6,5 %
 La Berrichonne, blonde 4,5 %
 L'Atelier de la Bière - Bières Bellon, à Villedieu sur Indre :
@@ -1442,8 +2227,43 @@
 La Tournemine, Bière ambrée. American Bitter 4,8%
 La Touraille, Bière Brune fumée. Porter Tourbée 5,8%
 La Bonaventure, Bière cuivrée. British IPA 4,8%
-Indre-et-Loire
-Brasserie La Pigeonnelle à Céré-la-Ronde :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Indre-et-Loire</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Brasserie La Pigeonnelle à Céré-la-Ronde :
 Loirette blonde, 5,5° ;
 Loirette ambrée, 7,5° ;
 Salamandre, blonde, 6,5° ;
@@ -1466,49 +2286,122 @@
 La Loère blonde bio, 5°.
 Brasserie d'Amboise à Amboise :
 Bier'ouette blonde ;
-Bier'ouette ambrée.
-Loiret
-La Johannique
+Bier'ouette ambrée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Loiret</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>La Johannique
 Bell' de Loing
 Big Bang Beers
 Solar Flare, pale ale, 5,1°
 Red Shift, red ale, 5,6°
 Rogue Planet, stout, 5,4°
 Alpha Lyrae, bière blanche, 4,5°
-The Second Law, IPA, 6,6°
-Loir-et-Cher
-Brasserie Hönigmann, au nord après l'A10 de Saint-Lubin-en-Vergonnois.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+The Second Law, IPA, 6,6°</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Loir-et-Cher</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Brasserie Hönigmann, au nord après l'A10 de Saint-Lubin-en-Vergonnois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Corse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Haute-Corse
-Brasserie A Tribbiera, à Prunelli-di-Fiumorbo :
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Haute-Corse</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Brasserie A Tribbiera, à Prunelli-di-Fiumorbo :
 Apa, au miel, 9,0 %
 Dea, blonde, 5,0 %
 Embria, ambrée, 8,0 %
@@ -1517,42 +2410,81 @@
 Brasserie Pietra, à Furiani :
 Colomba, blanche
 Pietra, à la châtaigne
-Serena, blonde
-Corse-du-Sud
-Brasserie de Corse, à Ajaccio :
+Serena, blonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Corse-du-Sud</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Brasserie de Corse, à Ajaccio :
 Torra Ambrée, à la myrthe
 Torra Blonde, à l'arbouse</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Grand Est</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ardennes
-Ardwen à Launois-sur-Vence :
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ardennes</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardwen à Launois-sur-Vence :
 Ardwen Blonde - 5.6°
 Ardwen Blanche - 4.5°
 Ardwen Ambrée - 6.4°
@@ -1583,14 +2515,83 @@
 Arduinna, bière blonde
 L'Oubliette, bière ambrée
 ● Brasserie d'arthur, à Warcq (Ardennes): Fabrication de 4 types de bières artisanales : une blonde, une ambrée, une triple et une houblonnée titrant à 7 %. Créée en 2007, les bières sont vendues sous la marque "Cuvée d'arthur"
-Aube
-Le Moulin de Saint-Martin, brasserie à Saint-Martin-de-Bossenay
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Aube</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Le Moulin de Saint-Martin, brasserie à Saint-Martin-de-Bossenay
 L'Once Troy, micro-brasserie à Saint-Germain
 La Jéphie, brasserie à Méry-sur-Seine
 La nuit d’amour, micro-brasserie à Saint-Pouange
-La Roof, brasserie à Fouchères
-Bas-Rhin
-Brasserie Licorne, groupe Karlsbräu, à Saverne :
+La Roof, brasserie à Fouchères</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Brasserie Licorne, groupe Karlsbräu, à Saverne :
 gamme Licorne
 gamme Karlsbräu
 Amos anciennement produite par la Brasserie Amos, aujourd'hui intégrée dans la brasserie Licorne
@@ -1678,9 +2679,43 @@
 Bière sur lie
 Patriator
 Brassin de Mars
-Brassin de Noël
-Haute-Marne
-Brasserie de Vauclair à Giey-sur-Aujon
+Brassin de Noël</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Haute-Marne</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Brasserie de Vauclair à Giey-sur-Aujon
 La Choue
 Brasserie artisanale du Der à Montier-en-Der
 La Dervoise
@@ -1695,9 +2730,43 @@
 Brasserie artisanale du Grand Chêne à Saint-Broingt-les-Fosses
 La Dhuys
 Brasserie Bock'n Roll à Isomes
-La Voutûe
-Haut-Rhin
-Brasserie Hollbeer à Riquewihr :
+La Voutûe</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Haut-Rhin</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Brasserie Hollbeer à Riquewihr :
 gamme Hollbeer
 Brasserie de Saint-Louis à Saint-Louis :
 gamme Saint-Louis
@@ -1707,9 +2776,43 @@
 gamme La Welche
 Brasserie Saint-Alphonse à Vogelgrun :
 gamme Saint-Alphonse
-Brasserie des Quatre Pays à Hirtzbach
-Marne
-Brasserie artisanale l'Orjy à Juvigny
+Brasserie des Quatre Pays à Hirtzbach</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Marne</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Brasserie artisanale l'Orjy à Juvigny
 La Blonde
 La Blonde 4 céréales
 La Bière Ambrée
@@ -1733,9 +2836,43 @@
 Orgemont blanche
 Orgemont triple
 Bière des Rèmes, bière au marc de champagne
-La louve, bière à la framboise
-Meurthe-et-Moselle
-Brasserie de Champigneulles à Champigneulles :
+La louve, bière à la framboise</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Brasserie de Champigneulles à Champigneulles :
 La grande blonde de Champigneulles
 La bière d'Abbaye de Champigneulles
 Les Brasseurs de Lorraine à Pont-à-Mousson :
@@ -1787,11 +2924,79 @@
 Oak Silver Dapple (stout)
 Al-Hisan (IPA)
 Pumpernickel (seigle)
-Pumpkin ale
-Meuse
-Musée de la Bière à Stenay
-Moselle
-La Brasserie du Moulin à Hermelange :
+Pumpkin ale</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Meuse</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Musée de la Bière à Stenay</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>La Brasserie du Moulin à Hermelange :
 Sarova Ambrée, bière ambrée à haute fermentation
 Sarova Blanche, Bière blanche
 Sarova Blonde, bière blonde
@@ -1813,9 +3018,43 @@
 MalaBar, India Pale Ale, 6,5° Vol
 ChampBar, Saison 7,5° vol
 Bar iWhite, bière blanche, 5,5° vol
-Bar-be à Papa Noël, bière de Noël, 5° vol
-Vosges
-Brasserie Burval au Val-d'Ajol :
+Bar-be à Papa Noël, bière de Noël, 5° vol</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Brasserie Burval au Val-d'Ajol :
 La Val'heureuse Blanche - Bière blanche
 La Val'heureuse Blonde - Bière blonde
 La Val'heureuse Bleue Des Vosges - Bière blonde aux bluets bio
@@ -1860,36 +3099,75 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Hauts-de-France</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Aisne
-Bière de Bernoville, dans l'Aisne
-Nord
-Brasserie Au Baron à Gussignies :
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Aisne</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bière de Bernoville, dans l'Aisne</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Brasserie Au Baron à Gussignies :
 Cuvée des Jonquilles, Bière de garde, 7°.
 Saison Saint-Médard ambrée, Bière ambrée, 7°.
 Saison Saint-Médard brune, Bière brune, 7°.
@@ -2058,12 +3336,46 @@
 La Dreum Rousse, 7° ;
 La Dreum Brune, 7,5° ;
 La Dreum Triple de Noël, 9°.
-Brasserie Motte-Cordonnier à Armentières[18] :
+Brasserie Motte-Cordonnier à Armentières :
 La René, 6° ;
 La Bière de Famille, 7° ;
-La Émile, 9°
-Oise
-Brasserie Saint Rieul, à Trumilly :
+La Émile, 9°</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Oise</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasserie Saint Rieul, à Trumilly :
 Bernache, blonde, 7° ;
 Spatule Blanche, 5,5° ;
 St Rieul Brune, 7° ;
@@ -2083,8 +3395,43 @@
 La Chaumont' Oise Brune, bio, 6,5°.
 Montagny-Sainte-Félicité :
 félicité (Blanche, blonde, ambrée) qui
-Pas-de-Calais
-Brasserie des 7 Bonnettes à Étaing :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Brasserie des 7 Bonnettes à Étaing :
 La Bonnette Blonde
 La Bonnette Brune
 La Bonnette Ambrée
@@ -2164,9 +3511,43 @@
 La blanche
 La ambré
 La fruité
-La blonde au miel
-Somme
-Brasserie De Clerck, à Péronne :
+La blonde au miel</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Somme</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Brasserie De Clerck, à Péronne :
 La Belle Siska, bière de garde ambrée
 Colvert, blonde 7°
 la Fanette, blonde dorée 6°
@@ -2184,34 +3565,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Île-de-France</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Essonne
-Brasserie Parisis à Épinay-sous-Sénart :
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Essonne</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Brasserie Parisis à Épinay-sous-Sénart :
 Parisis Blonde, 6,5 %, pale ale
 Parisis Ambrée, 6,2 %, amber ale
 Parisis Blanche, 4,1 %, blanche au blé
@@ -2231,12 +3617,80 @@
 "Ox'Bièr" blonde,
 "Ox'Bièr" ambrée,
 "Ox'Bièr" brune,
-La baroudeuse, 5%, en partenariat avec l'ENSTA Paris
-Hauts-de-Seine
-Brasserie Roquette :
-Roquette Pale Ale, 5,5 %
-Paris
-Brasserie BAPBAP, dans le 11e arrondissement :
+La baroudeuse, 5%, en partenariat avec l'ENSTA Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hauts-de-Seine</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Brasserie Roquette :
+Roquette Pale Ale, 5,5 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Brasserie BAPBAP, dans le 11e arrondissement :
 Originale, pale ale, fermentation haute, 5,8° ;
 Blanc bec, wheat beer, 4,7° ;
 Vertigo, IPA, 6° ;
@@ -2271,9 +3725,43 @@
 La Gitane, ambrée, 5° ;
 La Phare, brune, 5° ;
 La Picaro, blanche, 5°.
-Brasserie Frog n Rosbeef dans le 2e arrondissement de Paris
-Seine-et-Marne
-Brasserie de Gaillon à Courpalay :
+Brasserie Frog n Rosbeef dans le 2e arrondissement de Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Seine-et-Marne</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Brasserie de Gaillon à Courpalay :
 "Bière de Brie" blonde,
 "Bière de Brie" ambrée,
 "Bière de Brie" blanche.
@@ -2291,9 +3779,43 @@
 La Mousse de Bleau, blonde
 La Mousse de Bleau, ambrée
 La Mousse de Bleau, brune
-La Mousse de Bleau, spéciale
-Seine-Saint-Denis
-FrogBeer à Pierrefitte-sur-Seine[19] :
+La Mousse de Bleau, spéciale</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FrogBeer à Pierrefitte-sur-Seine :
 "Natural Blonde" 4,2 %
 "Maison Blanche" 4,2 %
 "Pearl" 4,1 %
@@ -2334,18 +3856,86 @@
 "Single Hops Citra",
 "Single Hops Columbus",
 "Single Hops Simcoe",
-West Coast IPA".
-Val-de-Marne
-Deck &amp; Donohue à Bonneuil-sur-Marne
+West Coast IPA".</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Val-de-Marne</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Deck &amp; Donohue à Bonneuil-sur-Marne
 La Brasserie S'tache à Choisy-le-Roi :
 la Rancho, personnage vintage moustachu décalé consacré au monde de la glisse
 "La 47' bière", collaboration avec le groupe de musique 47Ter, 4,7°
 "Santa S'tache", bière de Noël, 6°
 "SMASH S'tache", SMASH coco, 3,5°
 American Pale Ale au Citra, 5,5°
-Creamshake IPA, NEIPA, 4,5°
-Val-d'Oise
-La Ferme Brasserie du Vexin à Théméricourt :
+Creamshake IPA, NEIPA, 4,5°</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Val-d'Oise</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>La Ferme Brasserie du Vexin à Théméricourt :
 Bière du Vexin, blonde, 5,5°
 Bière du Vexin, blanche, 4,5°
 Bière du Vexin, ambrée, 5,5°
@@ -2353,9 +3943,43 @@
 Les Bières du Chat-Volant (élaborées à Montgeroult, brassées à Céré-la-Ronde) :
 La Blonche, 5,6°
 Fly 2 Mumbaï, 6,5°
-Love Season, 6,9°
-Yvelines
-Brasserie de La Vallée de Chevreuse, au Perray-en-Yvelines :
+Love Season, 6,9°</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Yvelines</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Brasserie de La Vallée de Chevreuse, au Perray-en-Yvelines :
 La gamme bio Volcelest :
 Volcelest Blonde 5,7 %
 Volcelest Ambrée 6,0 %
@@ -2399,33 +4023,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>Normandie</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Calvados
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Calvados</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Brasserie de L'odon à Aunay-sur-Odon
 Brasserie La Biergerie à Caen
 Brasserie La Mouette à Caen
@@ -2445,11 +4075,79 @@
 La triple à la mode de Caen, triple ;
 Ça sent le sapin, bière de Noël.
 Brasserie Bel Orge à Villers-sur-Mer
-[réf. nécessaire]
-Orne
-La Trotteuse, bière de Saint-Brice-sous-Rânes.
-Eure
-Brasserie à Breuilpont :
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Orne</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>La Trotteuse, bière de Saint-Brice-sous-Rânes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Eure</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Brasserie à Breuilpont :
 Bières Le Goubelin
 Brasserie de Sutter à Gisors :
 Crazy IPA
@@ -2472,14 +4170,82 @@
 Brasserie artisanale Guy Duplessi à Tosny :
 Richard Cœur de Lion blonde
 Richard Cœur de Lion brune
-Richard Cœur de Lion ambrée
-Manche
-Brasserie Cotentine à Barneville-Carteret
+Richard Cœur de Lion ambrée</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Manche</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Brasserie Cotentine à Barneville-Carteret
 Fée d'Orge à Bréhal
 La Mousse granvillaise à Granville
-L’Ecume des Falaises - Jullouville
-Seine-Maritime
-Abbaye Bénédictine de Saint-Wandrille à Saint-Wandrille-Rançon :
+L’Ecume des Falaises - Jullouville</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Seine-Maritime</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Abbaye Bénédictine de Saint-Wandrille à Saint-Wandrille-Rançon :
 Saint-Wandrille, ambrée, 6,5°.
 Sicera Humolone, blanche, 5,5°
 Hortus Deliciarum, blonde au houblon frais du jardin (un brassin par an), 6,2°
@@ -2511,35 +4277,72 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>(Par ordre alphabétique des communes)
-Charente
-La Brasserie Brunack, à Ansac-sur-Vienne :
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Par ordre alphabétique des communes)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Charente</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>La Brasserie Brunack, à Ansac-sur-Vienne :
 Balizarde, Stout, 6,5 %
 Durandal, Ambrée, 7 %
 Tizona, Impérial IPA, 8 %
@@ -2571,9 +4374,43 @@
 Nevermore, 9,5°
 Cognac Barrel, 9,5°
 Slap-a-Banker, 12°
-Demi-Mondaine, 11°
-Charente-Maritime
-Bière de Ré, bière de l'Île de Ré
+Demi-Mondaine, 11°</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Charente-Maritime</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bière de Ré, bière de l'Île de Ré
 Science Infuse, bière pédagogique brassée par le Département Biotechnologies de l'Université des Sciences de La Rochelle
 Science Infuse Pils Blonde, 5,0 %
 Science Infuse Blanche, 5,0 %
@@ -2594,8 +4431,43 @@
 Un air d'été, Blonde au seigle 5% (bière d'été)
 Never Mind Porter, Imperial Porter/Stout 8,4%
 Beer Jam Session, Blonde légère 2,5% (éphémère)
-Corrèze
-Brasserie du Causse à Chartrier-Ferrière :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Corrèze</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Brasserie du Causse à Chartrier-Ferrière :
 La Caselle du Diable, Bière blonde haute fermentation, 5°
 Le Loup Blanc du Causse, Bière blanche fermentation haute, 5°
 L'Ondine d'Oray, Bière rousse fermentation haute, 6.5°
@@ -2606,15 +4478,49 @@
 Ambrée à la châtaigne et au miel de châtaignier
 Blanche aux fleurs de sureau
 Rousse au safran
-Rouge au cassis
-Deux-Sèvres
-Brasserie du Marais poitevin à Coulon : Tête de mule
+Rouge au cassis</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Deux-Sèvres</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Brasserie du Marais poitevin à Coulon : Tête de mule
 La blonde, 5,0 %
 L'ambrée, 5,5 %
 La brune, 4,5 %
 L'abbaye blonde, 8,0 %
 L'abbaye brune, 8,0 %
-La triple artisanale, 8,5 % médaille d'or au concours général agricole Paris 2018[20][réf. incomplète]
+La triple artisanale, 8,5 % médaille d'or au concours général agricole Paris 2018[réf. incomplète]
 Brasserie du Val de Sèvre à Pamproux : La Belette, bières biologiques
 La blonde, 5,5 %
 L'ambrée, 6 %
@@ -2626,37 +4532,71 @@
 Brasserie La Chamoise à Bessines
 La blonde, 5 %
 La brune, 6 %
-La blanche, 5 %
-Dordogne
-Brasserie La Margoutie, à Blis-et-Born[21] :
+La blanche, 5 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Dordogne</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Brasserie La Margoutie, à Blis-et-Born :
 La Margoutie Ambrée, 5,0 %, bouteille de 75 cl.
 La Margoutie Blanche, 5,0 %, bouteille de 75 cl.
 La Margoutie Blonde, 5,0 %, bouteille de 75 cl.
 La Margoutie Brune, 5,0 %, bouteille de 75 cl.
 La Margoutie Stout, 5,0 %, bouteille de 75 cl.
-Brasserie Le Clandestin, au Bugue[22] :
+Brasserie Le Clandestin, au Bugue :
 Le Clandestin Blonde, 5,0 %, bouteille de 75 cl.
 Le Clandestin Ambrée, 5,0 %, bouteille de 75 cl.
 Bière à la Framboise
 Bière des faucheurs
-Brasserie La Lutine, à Limeuil[23] :
+Brasserie La Lutine, à Limeuil :
 Lutine Ambrée, 5.5°, bouteille de 33 cl ou 75 cl.
 Lutine Blanche, 5.0°, bouteille de 33 cl ou 75 cl.
 Lutine Blonde, 6.5°, bouteille de 33 cl ou 75 cl.
 Lutine Brune, 7.5°, bouteille de 33 cl ou 75 cl.
 Lutine de Noël, brune, 8.5°, bouteille de 33 cl ou 75 cl.
-Brasserie de la Dronne, à Lisle[24] :
+Brasserie de la Dronne, à Lisle :
 La Croquante Blonde, 5.50°, bouteille de 33 cl.
 La Croquante Ambrée, 4.90°, bouteille de 33 cl.
 La Croquante Blanche, 4.50°, bouteille de 33 cl.
 La Croquante Brune, 6.50°, bouteille de 33 cl.
-Brasserie de Laubicherie (Ferme), à Sarlande[25] :
+Brasserie de Laubicherie (Ferme), à Sarlande :
 Bière aux Châtaignes, blonde 5.5°, bouteille de 33 cl.
 Bière de Ferme Blonde, 5.5°, bouteille de 33 cl.
 Bière de Ferme ambrée, 6.0°, bouteille de 33 cl ou 75 cl.
 Bière aux Noix, ambrée, 6.0°, bouteille de 33 cl.
 Bière à la Truffe, blonde, 5.5°, bouteille de 33 cl.
-Brasserie du Canardou, à Villefranche-de-Lonchat[26] :
+Brasserie du Canardou, à Villefranche-de-Lonchat :
 A l'Aven, chanvrée, bio, 5.0°, bouteille de 33 cl ou 75 cl.
 Felibrée, blonde, bio, 5.0°, bouteille de 33 cl ou 75 cl.
 Korlène, rousse, bio, 5.6°, bouteille de 33 cl ou 75 cl.
@@ -2664,19 +4604,53 @@
 La Nonette, brune, Triple Grain, bio, 6.0°, bouteille de 33 cl ou 75 cl.
 Bièra Amb Noses, aux Noix, bio, 4.8°, bouteille de 33 cl ou 75 cl.
 Bièra Amb Castanha, aux châtaignes, bio, 4.8°, bouteille de 33 cl ou 75 cl.
-Bière de Noël, bio, 5.6°, bouteille de 33 cl ou 75 cl.
-Gironde
-Azimut Brasserie, à Bordeaux
+Bière de Noël, bio, 5.6°, bouteille de 33 cl ou 75 cl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Azimut Brasserie, à Bordeaux
 L'amirale Bière, à Bordeaux
 Brasserie Gasconha, à Pessac
 Brasserie Burdigala, à La Teste-de-Buch
 Brasserie Artisanale Mac Occ', à Macau
 La p'tite martial, à Bordeaux
-SARL Missyl, à Arcachon[27] :
+SARL Missyl, à Arcachon :
 Bassin, blonde, 5.0°, bouteille de 33 cl.
-Brasserie de l'Atlantique, à Bordeaux[28] :
+Brasserie de l'Atlantique, à Bordeaux :
 Aya, à la vodka, ambrée, 6.10°, bouteille de 33 cl.
-Brasserie Frog &amp; Rosbif, à Bordeaux[29] :
+Brasserie Frog &amp; Rosbif, à Bordeaux :
 Frog Natural, blonde, 4,2°
 Bord'Ale, ambrée, 4,4°
 Brew D'Ausone, rousse 5,2°
@@ -2684,13 +4658,13 @@
 Maison Blanche, blanche, 4,2°
 Froegaarden, blanche, 4,2°
 Ginger Twist, 4,4°
-Brasserie de l’Entre-deux-Bières, à Mauriac[30] :
+Brasserie de l’Entre-deux-Bières, à Mauriac :
 L'Entre 2, blonde, 4.50°, bouteille de 33 cl.
 La Baïne, rousse, 7.00°, bouteille de 33 cl.
 La Tchanquée, brune, 4.00°, bouteille de 33 cl.
-Bruno Baillarguet, à Saint-Émilion[31] :
+Bruno Baillarguet, à Saint-Émilion :
 Parallèle 45, ambrée, 7.00°, bouteille de 33 cl.
-Brasserie Fleur de houblon, à Villenave-d'Ornon[32] :
+Brasserie Fleur de houblon, à Villenave-d'Ornon :
 Fleur de Houblon Ambrée, 5.5°, bouteille de 65 cl.
 Fleur de Houblon Blanche, 4.5°, bouteille de 65 cl.
 Fleur de Houblon Blonde, 5.0°, bouteille de 65 cl.
@@ -2706,9 +4680,43 @@
 Brune bio
 Coef 119, blonde de triple fermentation
 Maison PIP à Bègles
-Brasserie Mira à La Teste-de-Buch
-Haute-Vienne
-Brasserie Plormel+Plormel à Limoges :
+Brasserie Mira à La Teste-de-Buch</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Brasserie Plormel+Plormel à Limoges :
 La Barbotine Bio Blanche
 La Barbotine Bio Blonde
 La Barbotine Bio Ambrée
@@ -2719,13 +4727,47 @@
 Blanche, 4°
 Brune, 6°
 Printemps, 4°
-Ferme-brasserie des Monts et Barrages, à Sainte-Anne-Saint-Priest[33] :
+Ferme-brasserie des Monts et Barrages, à Sainte-Anne-Saint-Priest :
 La Maquisarde Blonde
 La Maquisarde Ambrée
 La Maquisarde Blanche
-La Maquisarde Rousse
-Landes
-Bière du Huchet à Moliets-et-Maa :
+La Maquisarde Rousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Landes</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Bière du Huchet à Moliets-et-Maa :
 Blonde 5° Bouteilles 33 cl
 Ambrée 5° Bouteilles 33 cl
 Blanche 5° Bouteilles 33 cl
@@ -2758,18 +4800,86 @@
 Hapchot Beer, bière artisanale brassée à Hossegor :
 Blonde 5° Bouteilles 33 cl et 75 cl, fûts 5L et 30L
 Ambrée 5° Bouteilles 33 cl et 75 cl, fûts 5L et 30L
-Blanche 5° Bouteilles 33 cl et 75 cl, fûts 5L et 30L
-Lot-et-Garonne
-Brasserie Bierbel, à Boé[34] :
+Blanche 5° Bouteilles 33 cl et 75 cl, fûts 5L et 30L</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lot-et-Garonne</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Brasserie Bierbel, à Boé :
 Bierbel blanche, 5.00°, fût de 30 L.
 Bierbel blonde, 5.00°, bouteille de 25 cl, fût de 30 L.
 Bierbel brune, 6.00°, bouteille de 25 cl, fût de 30 L.
 Bierbel rousse, 7.50°, fût de 30 L.
 Slip-Pils, blonde, 5.00°, fût de 30 L.
-L.S. Distribution, à Port-Sainte-Marie (Les bières sont brassées par la Cervoiserie Lancelot.)[35] :
-Natural Mystick, au chanvre, blonde ou ambrée, bio, 5.80°, 6,5° et 7,5°, bouteille de 33 cl ou 75 cl.
-Pyrénées-Atlantiques
-Brasserie Akerbeltz, à Ascain[36] :
+L.S. Distribution, à Port-Sainte-Marie (Les bières sont brassées par la Cervoiserie Lancelot.) :
+Natural Mystick, au chanvre, blonde ou ambrée, bio, 5.80°, 6,5° et 7,5°, bouteille de 33 cl ou 75 cl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Pyrénées-Atlantiques</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Brasserie Akerbeltz, à Ascain :
 Akerbeltz Xuria, blanche, 4.0°, bouteille de 33 cl, 75 cl, fûts de 20 ou 30 L.
 Akerbeltz Horaila, blonde, 4.0°
 Akerbeltz Gorrosta, ambrée, 5.5°, bouteille de 33 cl, 50 cl, 75 cl, fûts de 20 ou 30 L.
@@ -2777,18 +4887,52 @@
 Brasserie Béarnaise, à Pau :
 Shuc, blonde 5.5° - Bouteilles 33 cl, 75 cl / Fûts de 20 L
 Mousse Ta Shuc, ambrée 6.5° - Bouteilles 33 cl, 75 cl / Fûts de 20 L
-Brasserie du Pays basque, à Bardos[37] non fabriquées sur place, brassées par la brasserie Météor en Alsace
+Brasserie du Pays basque, à Bardos non fabriquées sur place, brassées par la brasserie Météor en Alsace
 Eki, bière blonde 5.0°, bouteille de 33 cl.
-Etxeko Bob’s Beer, à Hasparren[38] :
+Etxeko Bob’s Beer, à Hasparren :
 Bob’s Beer
-Pression Paloise, à Lescar (bières uniquement consommées sur place)[39] :
+Pression Paloise, à Lescar (bières uniquement consommées sur place) :
 Pression Paloise Ambrée,	5.50°
 Pression Paloise Blonde, 6.00°
 Pression Paloise Blanche, 4.50°
-Cave Canetta, à Saint-Jean-de-Luz[40] :
-Oldarki, Bière au Patxaran, 6.00°, bouteille de 33 cl, non fabriquées sur place.
-Vienne
-La Manufacture de Bières, à Poitiers
+Cave Canetta, à Saint-Jean-de-Luz :
+Oldarki, Bière au Patxaran, 6.00°, bouteille de 33 cl, non fabriquées sur place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Vienne</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>La Manufacture de Bières, à Poitiers
 Gamme Régulière
 Agamemnon, Bold Session Stout à 4°
 Achille, Triple Défroquée à 9,3°
@@ -2828,34 +4972,39 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Occitanie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Ariège
-Brasserie Le Grand Bison à Lavelanet
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ariège</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Brasserie Le Grand Bison à Lavelanet
 La Fontilla, bière blonde
 La Tribale, bière blonde
 La Flambeuse, bière ambrée
@@ -2865,9 +5014,43 @@
 La Carabel, bière ambrée 6.0°
 La Magie Brune, bière brune 4.5°
 La Plume, bière blanche 4.0°^
-Brasserie artisanale "La Boussole" à Taurignan-Vieux
-Aude
-Brasserie Dona Carcas à Peyriac-Minervois, brasse des bières à partir d'orge bio et de miel des Corbières.
+Brasserie artisanale "La Boussole" à Taurignan-Vieux</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Aude</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Brasserie Dona Carcas à Peyriac-Minervois, brasse des bières à partir d'orge bio et de miel des Corbières.
 Les Brasseurs de la Cité, à Carcassonne :
 Ciutat Pils (fermentation basse, 4,5°),
 Ciutat Blanche (fermentation haute, 5,3°),
@@ -2882,9 +5065,43 @@
 Bière brune : Gaspard (5°) ;
 Stout : Bob (4,8°) ;
 Pale ale : Albert (5°) ;
-Bières de Noël : Norma Jean (Triple, 9,3°), Wladimir Putain (Russian Imperial Stout, 9,2°), Möe Tœurhead (Barleywine, 13,3°).
-Aveyron
-Brasserie du Larzac (microbrasserie fermière):
+Bières de Noël : Norma Jean (Triple, 9,3°), Wladimir Putain (Russian Imperial Stout, 9,2°), Möe Tœurhead (Barleywine, 13,3°).</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Aveyron</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Brasserie du Larzac (microbrasserie fermière):
 La Devez, bière du Larzac blonde, 5 %
 La Rajal, bière du Larzac ambrée, 5 %
 La Blaque, bière du Larzac brune, 6 %
@@ -2926,9 +5143,43 @@
 Brasserie de l'Aveyron (brasserie artisanale) :
 La Templière
 La Deuchiste
-La B12
-Gard
-Les Bières d'Uzès, à Uzès :
+La B12</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Gard</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Les Bières d'Uzès, à Uzès :
 Système D blanche,
 Système D blonde,
 Système D ambrée,
@@ -2949,9 +5200,43 @@
 Nuit Délicatula 33cl - 75cl
 Rib 90 IBU 33cl - 75cl
 Weizenbock 33cl - 75cl
-Brasserie artisanale de Beaucaire, à Beaucaire.
-Gers
-Brasserie L'Excuse à Mauvezin :
+Brasserie artisanale de Beaucaire, à Beaucaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Gers</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Brasserie L'Excuse à Mauvezin :
 L'Extravertie, blanche, 4,5° ;
 L'Exaequo, blonde, 5,5° ;
 L'Exilée, ambrée, 6,5°.
@@ -2970,9 +5255,43 @@
 La Forgerette, blonde, 5° ;
 La Forgerette, ambrée, 5° ;
 Bière de Noël, brune, 6,5° ;
-Bière de l'été, blonde, 3,8°.
-Haute-Garonne
-Brasserie la Biérataise, à Bérat
+Bière de l'été, blonde, 3,8°.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Brasserie la Biérataise, à Bérat
 Brasserie Les Frères brasseurs à Aucamville :
 Bière Blanche BLANCA, 4,5°
 Bière Blonde TOLOSA PILS, 4,0°
@@ -2981,9 +5300,43 @@
 Bière Ambrée TOLOSA AMBREE, 5,9°
 Bière Ambrée TOLOSA AMBREE DE NOËL, 5,9°
 Bière Brune TOLOSA BRUNE, 6,5°
-Bière Rousse Fumée TOLOSA ROUSSE, 5,5°
-Hautes-Pyrénées
-Brasserie L'Aoucataise à Arreau[41] :
+Bière Rousse Fumée TOLOSA ROUSSE, 5,5°</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Hautes-Pyrénées</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Brasserie L'Aoucataise à Arreau :
 Bières artisanales non filtrées, brassées à l'eau de source de montagne, brassin de 50l. 33cl, 75cl
 Bière au miel du Louron : douce et onctueuse 4.5°. 33cl, 75cl
 Bière blanche au gout d'agrume 6°
@@ -3006,9 +5359,43 @@
 Blonde, au miel, 5°, bouteilles 33 cl.
 Triple blonde &amp; ambrée
 Blonde IPA
-Caca bière
-Hérault
-Brasserie Alaryk, Béziers :
+Caca bière</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Brasserie Alaryk, Béziers :
 Blanche bio
 Blonde bio
 Ambrée bio
@@ -3038,9 +5425,43 @@
 European Saison, 5,5 %
 Russian Imperial Stout, 9,5 %
 Pilote#1: Hopstand IPA Mosaic Citra Chinook, 7 %
-Pilote#2: Hoppy Pale Ale, DDH Ekuanot, 5,5 %
-Lot
-Brasserie Ratz à Cahors :
+Pilote#2: Hoppy Pale Ale, DDH Ekuanot, 5,5 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Brasserie Ratz à Cahors :
 Gamme des traditionnelles :
 Blonde, 5°
 Blanche, 5°
@@ -3066,9 +5487,43 @@
 La Belle Saison,
 La Nocta.
 Brasserie de la Cère à Martel fabrique sous la marque ˈˈLes bières de Julienˈˈ :
-Blonde, Blonde forte, Blanche, Ambrée, Brune, Plume Gal, Black IPQ, Humulus Lupulus, Tête au carré et Légèreté.
-Lozère
-La 48 à Mende :
+Blonde, Blonde forte, Blanche, Ambrée, Brune, Plume Gal, Black IPQ, Humulus Lupulus, Tête au carré et Légèreté.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Lozère</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>La 48 à Mende :
 Ambrée
 Blanche
 La Bière à Fred à Saint-Martin-de-Boubaux :
@@ -3093,9 +5548,43 @@
 La Mélina
 La Rouge Gorge
 La Brimbelle
-La Bain d'Epices
-Pyrénées-Orientales
-Brasserie Cap d'Ona, à Argelès-sur-Mer :
+La Bain d'Epices</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Pyrénées-Orientales</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Brasserie Cap d'Ona, à Argelès-sur-Mer :
 Cap d'Ona
 Ambrée
 Spéciale
@@ -3108,15 +5597,49 @@
 Ambrée
 Blanche
 Stout
-Brasserie Tôa, à Céret[42] :
+Brasserie Tôa, à Céret :
 Blonde, au thé vert
 Ambrée
 Brune
 Rousse
 Brasserie de Prats de Mollo, à Prats-de-Mollo-la-Preste :
-Senyor Voltor
-Tarn
-Brasserie Belles de Trébas, à Trébas.
+Senyor Voltor</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tarn</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Brasserie Belles de Trébas, à Trébas.
 Brasserie Sainte Cécile, à Albi.
 Brasserie Margot, à Albi.
 Brasserie les Gélines, à Albi (en cessation d'activité).
@@ -3139,9 +5662,43 @@
 Brasserie Burtonian Beers, à Castres.
 Brasserie Auros, à Cordes-sur-Ciel.
 Brasserie de la Brunaude, à Coufouleux.
-Brasserie du Sidobre, à Le Bez.
-Tarn-et-Garonne
-Brasserie Iron à Montauban.
+Brasserie du Sidobre, à Le Bez.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tarn-et-Garonne</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Brasserie Iron à Montauban.
 Brasserie Belier Verfeil sur seye
 Summer ipa
 perché apa
@@ -3153,31 +5710,33 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>Guadeloupe</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Corsaire
 La Lézarde
@@ -3186,123 +5745,131 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>Guyane</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
         <is>
           <t>Jeune Gueule</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>Martinique</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bière Lorraine[43];
-BAM[44];
-Le Deck[45].</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Bière Lorraine;
+BAM;
+Le Deck.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>Mayotte</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Hipo</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Nouvelle-Calédonie</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Grande brasserie de Nouvelle-Calédonie
 Number One
@@ -3312,31 +5879,33 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Polynésie française</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Brasserie de Tahiti :
 Hinano
@@ -3345,31 +5914,33 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>La Réunion</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
         <is>
           <t>Brasseries de Bourbon
 Bière Bourbon ou « Dodo »
@@ -3382,34 +5953,39 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>Pays de la Loire</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Loire-Atlantique
-Brasserie du Bouffay, à Carquefou :
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Brasserie du Bouffay, à Carquefou :
 L'Ambrée, 7,0 %
 La Blanche, 5,0 %
 La Blonde, 6,0 %
@@ -3447,9 +6023,43 @@
 L'Ambrée
 La Carlota
 La Brune
-La Bière de Noël
-Maine-et-Loire
-Brasserie B2R2, à  Angers :
+La Bière de Noël</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Brasserie B2R2, à  Angers :
 Bon Roi, bière de garde titrant 6 %
 Guillaume Tell, bière blanche à la pomme 3,6 %
 Dumnac Beers, aux Ponts de Cé :
@@ -3460,9 +6070,43 @@
 La fabrique des bières d'Anjou (label AB), à  La Ménitré :
 La Piautre, bière blanche 4 %, blonde 5 %, rousse 6 %, ambrée 5,6 % noire 5 % et triple 7,5 % en 33 cl ou 75 cl
 Brasserie des Fontaine (bière artisanale) , aux Vercher sur Layon :
-La Rombiere (bière artisanale) à Beaupréau
-Vendée
-Brasserie Mélusine à Chambretaud :
+La Rombiere (bière artisanale) à Beaupréau</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Vendée</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Brasserie Mélusine à Chambretaud :
 Mélusine, blonde 6,5 %
 Mélusine bio, blonde 5 %
 Barbe bleue, brune 7 %
@@ -3473,35 +6117,71 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>La Cornue (Provence)
-Alpes-de-Haute-Provence
-La Bière des Gorges (bio) - Brasserie Verdon à Saint Martin de Brômes :
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>La Cornue (Provence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Alpes-de-Haute-Provence</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>La Bière des Gorges (bio) - Brasserie Verdon à Saint Martin de Brômes :
 Blonde au Romarin et millefeuille de Provence
 Blonde au Miel de Lavande de Valensole et Safran de Forcalquier
 Ambrée aux châtaigne et gentiane de Provence
@@ -3531,18 +6211,86 @@
 Blanche
 Brune
 aux fleurs de génépi
-Blanche IPA
-Alpes-Maritimes
-Brasserie BadaB, à Grasse :
+Blanche IPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Brasserie BadaB, à Grasse :
 La Grassieuse, bière blonde ;
 La Clarinette, bière blanche ;
 La Contrebasse, bière ambrée.
 Ferme-brasserie Barberis, à Massoins.
 Mare Nostrum, à Castillon et Pégomas.
 Colgan's Brewery, à Mouans-Sartoux.
-Noiseless Beer, à Antibes.
-Bouches-du-Rhône
-Brasserie Artisanale de Provence à Rousset
+Noiseless Beer, à Antibes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brasserie Artisanale de Provence à Rousset
 Brasserie de Provence - Aquae Maltae à Aix-en-Provence
 La Petite Aixoise à Saint-Canat
 Aixpression à Rognes
@@ -3555,8 +6303,43 @@
 Brasserie Rock'n Malt à La Ciotat
 Brasserie Artisanale Arlatina à Arles
 Certaines brasseries des Bouches-du-Rône sont réunis dans l'association "Bière de Provence"
-Hautes-Alpes
-Brasserie Bio de Briançon :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Hautes-Alpes</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Brasserie Bio de Briançon :
 La Mistigri, blonde ;
 La Cattus, blonde ;
 La Moustache, ambrée ;
@@ -3584,9 +6367,43 @@
 VO Bulle Blonde,
 VO Bulle Dorée,
 VO Bulle Ambrée,
-VO Bulle Brune.
-Var
-Les brasseurs de l’esterel Saint-Raphaël
+VO Bulle Brune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Les brasseurs de l’esterel Saint-Raphaël
 Hypaea, Île de Porquerolles
 La Bière Des Iles D'or, Hyères
 La Bas Varoise, La Cadière-d'Azur
@@ -3596,15 +6413,49 @@
 Bière de la Rade, Toulon
 Le Mousse, La Seyne-sur-Mer
 Bière Sortilèges Saint-Maximin-la-Sainte-Baume
-Bozzzale, Figanières
-Vaucluse
-Le département compte une vingtaine de brasseries implantées[46], dont :
+Bozzzale, Figanières</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Liste_de_marques_de_bières_brassées_en_France</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_marques_de_bi%C3%A8res_brass%C3%A9es_en_France</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Vaucluse</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Le département compte une vingtaine de brasseries implantées, dont :
 DBS - La bière des Cigales (Groupe Heineken) à Avignon ;
-Brasserie du Mont Ventoux, à Carpentras[47] ;
-Brasserie LUB  Les Taillades[46] ;
-Agora artisans brasseurs à Carpentras[46] ;
-Balme à Beaumes-de-Venise[46]
-La Géante de Provence à Brantes[46] ;</t>
+Brasserie du Mont Ventoux, à Carpentras ;
+Brasserie LUB  Les Taillades ;
+Agora artisans brasseurs à Carpentras ;
+Balme à Beaumes-de-Venise
+La Géante de Provence à Brantes ;</t>
         </is>
       </c>
     </row>
